--- a/phigros.xlsx
+++ b/phigros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myth1\OneDrive\Desktop\Project\Project-apk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB0D7EF-0BCE-42BB-960A-82C479BF6616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51712561-6FC3-4C6B-8C98-ACAA3D9372DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Version</t>
   </si>
@@ -51,6 +51,15 @@
   </si>
   <si>
     <t>https://pan.baidu.com/s/1T_sW3-Lvm9tP_j85vauq4w?pwd=1234</t>
+  </si>
+  <si>
+    <t>3.17.0.1</t>
+  </si>
+  <si>
+    <t>Oct 31, 2025</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1ViPkxdMuSbunv8gzrfZP-g?pwd=1234</t>
   </si>
 </sst>
 </file>
@@ -454,11 +463,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88782FC7-6F7E-9E4F-AEC6-757ED4B54885}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C9" sqref="C9"/>
+      <selection pane="topRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -482,20 +491,32 @@
     </row>
     <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{E864D472-FF39-49FA-ABE1-CD7850F2026F}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{E864D472-FF39-49FA-ABE1-CD7850F2026F}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{E8CAE655-D23A-4257-A732-053AED81D82D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId3"/>
 </worksheet>
 </file>
--- a/phigros.xlsx
+++ b/phigros.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myth1\OneDrive\Desktop\Project\Project-apk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51712561-6FC3-4C6B-8C98-ACAA3D9372DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD610DA-A745-4A9F-9153-2042229315E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Version</t>
   </si>
@@ -60,6 +60,15 @@
   </si>
   <si>
     <t>https://pan.baidu.com/s/1ViPkxdMuSbunv8gzrfZP-g?pwd=1234</t>
+  </si>
+  <si>
+    <t>3.18.0</t>
+  </si>
+  <si>
+    <t>Nov 21, 2025</t>
+  </si>
+  <si>
+    <t>https://pan.baidu.com/s/1zh78M5tXq54qQtrzpHJZOg?pwd=1234</t>
   </si>
 </sst>
 </file>
@@ -463,22 +472,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88782FC7-6F7E-9E4F-AEC6-757ED4B54885}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F4" sqref="F4"/>
+      <selection pane="topRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="4"/>
-    <col min="2" max="2" width="11.90625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="8.77734375" style="4"/>
+    <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -489,34 +498,46 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{E864D472-FF39-49FA-ABE1-CD7850F2026F}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{E8CAE655-D23A-4257-A732-053AED81D82D}"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{E864D472-FF39-49FA-ABE1-CD7850F2026F}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{E8CAE655-D23A-4257-A732-053AED81D82D}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{4FBF36FD-19C9-43A2-92E4-F36A370A8294}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId4"/>
 </worksheet>
 </file>
--- a/phigros.xlsx
+++ b/phigros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myth1\OneDrive\Desktop\Project\Project-apk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD610DA-A745-4A9F-9153-2042229315E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826C55D5-EEC5-4112-851D-64B6D7BC2E0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Version</t>
   </si>
@@ -44,31 +44,13 @@
     <t>Release Date</t>
   </si>
   <si>
-    <t>3.16.1</t>
-  </si>
-  <si>
-    <t>Oct 9, 2025</t>
-  </si>
-  <si>
-    <t>https://pan.baidu.com/s/1T_sW3-Lvm9tP_j85vauq4w?pwd=1234</t>
-  </si>
-  <si>
-    <t>3.17.0.1</t>
-  </si>
-  <si>
-    <t>Oct 31, 2025</t>
-  </si>
-  <si>
-    <t>https://pan.baidu.com/s/1ViPkxdMuSbunv8gzrfZP-g?pwd=1234</t>
-  </si>
-  <si>
     <t>3.18.0</t>
   </si>
   <si>
     <t>Nov 21, 2025</t>
   </si>
   <si>
-    <t>https://pan.baidu.com/s/1zh78M5tXq54qQtrzpHJZOg?pwd=1234</t>
+    <t>https://pan.baidu.com/s/1xDvRt5DW-ajRv8L5xrl1aA?pwd=1234</t>
   </si>
 </sst>
 </file>
@@ -472,11 +454,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88782FC7-6F7E-9E4F-AEC6-757ED4B54885}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C5" sqref="C5"/>
+      <selection pane="topRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -500,44 +482,20 @@
     </row>
     <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{E864D472-FF39-49FA-ABE1-CD7850F2026F}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{E8CAE655-D23A-4257-A732-053AED81D82D}"/>
-    <hyperlink ref="C2" r:id="rId3" xr:uid="{4FBF36FD-19C9-43A2-92E4-F36A370A8294}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{11DC2208-B01D-4925-AA52-49D9083C8756}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId2"/>
 </worksheet>
 </file>